--- a/ExcelTestCases/MyStoreDemo - Automation Test Cases.xlsx
+++ b/ExcelTestCases/MyStoreDemo - Automation Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="186">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -205,15 +205,6 @@
   order reference ID in new tab</t>
   </si>
   <si>
-    <t>Fill the "Email" and "Password" fields with invalid credentials</t>
-  </si>
-  <si>
-    <t>Verify that error message is displayed.</t>
-  </si>
-  <si>
-    <t>Authentication failed.' is displayed</t>
-  </si>
-  <si>
     <t>User is signed in</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
   </si>
   <si>
     <t>Preview and Zoom an Item</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Regression</t>
@@ -569,13 +557,35 @@
   </si>
   <si>
     <t>Pop-up closed</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>Login - Negative</t>
+  </si>
+  <si>
+    <t>Verify that user can't login with invalid credentials and 
+that error message is displayed</t>
+  </si>
+  <si>
+    <t>Fill the "Email" and "Password" fields with invalid credentials</t>
+  </si>
+  <si>
+    <t>Verify that error message is displayed.</t>
+  </si>
+  <si>
+    <t>Authentication failed.' is displayed</t>
+  </si>
+  <si>
+    <t>Click on "Sign Out"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -613,8 +623,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,8 +679,14 @@
         <bgColor rgb="FFFCD86F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BCC99"/>
+        <bgColor rgb="FF8BCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -906,11 +940,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1024,6 +1069,53 @@
     </xf>
     <xf borderId="17" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="16" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,7 +1335,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.25"/>
     <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="3" max="3" width="6.25"/>
+    <col customWidth="1" min="3" max="3" width="10.25"/>
     <col customWidth="1" min="4" max="4" width="7.75"/>
     <col customWidth="1" min="5" max="5" width="41.0"/>
     <col customWidth="1" min="6" max="6" width="55.5"/>
@@ -1874,7 +1966,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="18" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>18</v>
@@ -1888,10 +1980,10 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="18" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H44" s="17"/>
     </row>
@@ -1902,10 +1994,10 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H45" s="17"/>
     </row>
@@ -1916,10 +2008,10 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H46" s="17"/>
     </row>
@@ -1930,10 +2022,10 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H47" s="17"/>
     </row>
@@ -1944,10 +2036,10 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H48" s="17"/>
     </row>
@@ -1972,10 +2064,10 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H50" s="17"/>
     </row>
@@ -1986,10 +2078,10 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H51" s="17"/>
     </row>
@@ -2000,10 +2092,10 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H52" s="17"/>
     </row>
@@ -2014,10 +2106,10 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H53" s="17"/>
     </row>
@@ -2028,10 +2120,10 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H54" s="17"/>
     </row>
@@ -2042,10 +2134,10 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H55" s="17"/>
     </row>
@@ -2056,10 +2148,10 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56" s="17"/>
     </row>
@@ -2070,10 +2162,10 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="18" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H57" s="17"/>
     </row>
@@ -2084,10 +2176,10 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="18" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H58" s="17"/>
     </row>
@@ -2098,10 +2190,10 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="18" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H59" s="17"/>
     </row>
@@ -2112,10 +2204,10 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H60" s="17"/>
     </row>
@@ -2126,10 +2218,10 @@
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="18" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H61" s="17"/>
     </row>
@@ -2140,10 +2232,10 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="18" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H62" s="17"/>
     </row>
@@ -2154,10 +2246,10 @@
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="18" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H63" s="17"/>
     </row>
@@ -2168,10 +2260,10 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="18" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H64" s="17"/>
     </row>
@@ -2182,10 +2274,10 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="18" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H65" s="17"/>
     </row>
@@ -2196,10 +2288,10 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H66" s="17"/>
     </row>
@@ -2210,10 +2302,10 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H67" s="17"/>
     </row>
@@ -2224,10 +2316,10 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" s="17"/>
     </row>
@@ -2238,12 +2330,14 @@
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
@@ -2252,10 +2346,10 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H70" s="17"/>
     </row>
@@ -2266,14 +2360,12 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="24" t="s">
         <v>84</v>
       </c>
+      <c r="H71" s="17"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
@@ -2282,10 +2374,10 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H72" s="17"/>
     </row>
@@ -2298,9 +2390,7 @@
       <c r="F73" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="G73" s="25"/>
       <c r="H73" s="17"/>
     </row>
     <row r="74">
@@ -2310,10 +2400,10 @@
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="H74" s="17"/>
     </row>
@@ -2326,84 +2416,86 @@
       <c r="F75" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="25"/>
+      <c r="G75" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="H75" s="17"/>
     </row>
     <row r="76">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="G76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="22"/>
     </row>
     <row r="77">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="18" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="17"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21" t="s">
+      <c r="B78" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H78" s="22"/>
+      <c r="F78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="7"/>
     </row>
     <row r="79">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79" s="17"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="G80" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="7"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -2412,10 +2504,10 @@
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="18" t="s">
         <v>99</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="H81" s="17"/>
     </row>
@@ -2426,12 +2518,14 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H82" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -2443,7 +2537,7 @@
         <v>102</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H83" s="17"/>
     </row>
@@ -2454,14 +2548,12 @@
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>84</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H84" s="17"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
@@ -2470,10 +2562,10 @@
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="H85" s="17"/>
     </row>
@@ -2487,7 +2579,7 @@
         <v>106</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="H86" s="17"/>
     </row>
@@ -2501,7 +2593,7 @@
         <v>107</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H87" s="17"/>
     </row>
@@ -2512,10 +2604,10 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="18" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H88" s="17"/>
     </row>
@@ -2526,10 +2618,10 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H89" s="17"/>
     </row>
@@ -2540,10 +2632,10 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="18" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H90" s="17"/>
     </row>
@@ -2557,7 +2649,7 @@
         <v>111</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H91" s="17"/>
     </row>
@@ -2568,114 +2660,114 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G92" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="H92" s="17"/>
     </row>
     <row r="93">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="18" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G93" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" s="17"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="18" t="s">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="B95" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H94" s="17"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="21" t="s">
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G95" s="20"/>
-      <c r="H95" s="22"/>
+      <c r="E95" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="13"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="7"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="13"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="11" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="13"/>
+      <c r="G98" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="27"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" s="13"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H99" s="17"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
@@ -2683,11 +2775,11 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>23</v>
+      <c r="F100" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="H100" s="17"/>
     </row>
@@ -2698,10 +2790,10 @@
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="18" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="H101" s="17"/>
     </row>
@@ -2712,10 +2804,10 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H102" s="17"/>
     </row>
@@ -2726,10 +2818,10 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="18" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="H103" s="17"/>
     </row>
@@ -2757,7 +2849,7 @@
         <v>128</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="H105" s="17"/>
     </row>
@@ -2768,10 +2860,10 @@
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="18" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H106" s="17"/>
     </row>
@@ -2782,10 +2874,10 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="H107" s="17"/>
     </row>
@@ -2796,72 +2888,72 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="18" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="H108" s="17"/>
     </row>
     <row r="109">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="18" t="s">
+      <c r="A109" s="30"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="33"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="C110" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H109" s="17"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="8"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>131</v>
+      <c r="F110" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="H110" s="17"/>
     </row>
     <row r="111">
-      <c r="A111" s="30"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="33"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="17"/>
     </row>
     <row r="112">
-      <c r="A112" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>14</v>
+      <c r="A112" s="8"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="H112" s="17"/>
     </row>
@@ -2872,10 +2964,10 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H113" s="17"/>
     </row>
@@ -2886,10 +2978,10 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="18" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H114" s="17"/>
     </row>
@@ -2900,10 +2992,10 @@
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="18" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H115" s="17"/>
     </row>
@@ -2914,10 +3006,10 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H116" s="17"/>
     </row>
@@ -2928,10 +3020,10 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="18" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H117" s="17"/>
     </row>
@@ -2942,10 +3034,10 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H118" s="17"/>
     </row>
@@ -2956,10 +3048,10 @@
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="18" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="H119" s="17"/>
     </row>
@@ -2970,10 +3062,10 @@
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H120" s="17"/>
     </row>
@@ -2984,10 +3076,10 @@
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="18" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H121" s="17"/>
     </row>
@@ -2998,10 +3090,10 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H122" s="17"/>
     </row>
@@ -3012,10 +3104,10 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H123" s="17"/>
     </row>
@@ -3026,10 +3118,10 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="18" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="H124" s="17"/>
     </row>
@@ -3040,10 +3132,10 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="18" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H125" s="17"/>
     </row>
@@ -3054,10 +3146,10 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="18" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="H126" s="17"/>
     </row>
@@ -3068,10 +3160,10 @@
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H127" s="17"/>
     </row>
@@ -3082,10 +3174,10 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H128" s="17"/>
     </row>
@@ -3096,10 +3188,10 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="H129" s="17"/>
     </row>
@@ -3110,10 +3202,10 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="18" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="H130" s="17"/>
     </row>
@@ -3124,10 +3216,10 @@
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="18" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H131" s="17"/>
     </row>
@@ -3138,10 +3230,10 @@
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="18" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H132" s="17"/>
     </row>
@@ -3152,10 +3244,10 @@
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="18" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="H133" s="17"/>
     </row>
@@ -3166,10 +3258,10 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="18" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="H134" s="17"/>
     </row>
@@ -3180,10 +3272,10 @@
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="18" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H135" s="17"/>
     </row>
@@ -3193,11 +3285,11 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="18" t="s">
-        <v>46</v>
+      <c r="F136" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="H136" s="17"/>
     </row>
@@ -3208,10 +3300,10 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="18" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="H137" s="17"/>
     </row>
@@ -3222,10 +3314,10 @@
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="H138" s="17"/>
     </row>
@@ -3236,38 +3328,44 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="18" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H139" s="17"/>
     </row>
     <row r="140">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" s="18" t="s">
+      <c r="A140" s="30"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="33"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="H140" s="17"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="18" t="s">
+      <c r="B141" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G141" s="18" t="s">
+      <c r="C141" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="26" t="s">
         <v>160</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H141" s="17"/>
     </row>
@@ -3276,60 +3374,54 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="17"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="13"/>
     </row>
     <row r="143">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H143" s="17"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="13"/>
     </row>
     <row r="144">
-      <c r="A144" s="30"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="33"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" s="17"/>
     </row>
     <row r="145">
-      <c r="A145" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B145" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C145" s="35" t="s">
+      <c r="A145" s="8"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D145" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="H145" s="17"/>
     </row>
@@ -3338,28 +3430,28 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="13"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" s="17"/>
     </row>
     <row r="147">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="13"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" s="17"/>
     </row>
     <row r="148">
       <c r="A148" s="8"/>
@@ -3367,11 +3459,11 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="16" t="s">
-        <v>23</v>
+      <c r="F148" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="H148" s="17"/>
     </row>
@@ -3382,10 +3474,10 @@
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>124</v>
+        <v>162</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="H149" s="17"/>
     </row>
@@ -3396,10 +3488,10 @@
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="18" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H150" s="17"/>
     </row>
@@ -3412,7 +3504,7 @@
       <c r="F151" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G151" s="26" t="s">
+      <c r="G151" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H151" s="17"/>
@@ -3424,7 +3516,7 @@
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="18" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="G152" s="18" t="s">
         <v>29</v>
@@ -3438,7 +3530,7 @@
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G153" s="26" t="s">
         <v>25</v>
@@ -3452,10 +3544,10 @@
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H154" s="17"/>
     </row>
@@ -3480,10 +3572,10 @@
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H156" s="17"/>
     </row>
@@ -3494,7 +3586,7 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G157" s="26" t="s">
         <v>25</v>
@@ -3502,30 +3594,36 @@
       <c r="H157" s="17"/>
     </row>
     <row r="158">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H158" s="17"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="33"/>
     </row>
     <row r="159">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" s="18" t="s">
-        <v>25</v>
+      <c r="A159" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H159" s="17"/>
     </row>
@@ -3534,60 +3632,54 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H160" s="17"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="13"/>
     </row>
     <row r="161">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="18" t="s">
+      <c r="E161" s="10"/>
+      <c r="F161" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="8"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G162" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="17"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="8"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G163" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="H161" s="17"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="30"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="33"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B163" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="H163" s="17"/>
     </row>
@@ -3596,28 +3688,28 @@
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164" s="13"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H164" s="17"/>
     </row>
     <row r="165">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H165" s="13"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" s="17"/>
     </row>
     <row r="166">
       <c r="A166" s="8"/>
@@ -3625,11 +3717,11 @@
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>31</v>
+      <c r="F166" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="H166" s="17"/>
     </row>
@@ -3640,10 +3732,10 @@
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="18" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="H167" s="17"/>
     </row>
@@ -3654,12 +3746,14 @@
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="18" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H168" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="H168" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="8"/>
@@ -3668,10 +3762,10 @@
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="H169" s="17"/>
     </row>
@@ -3682,10 +3776,10 @@
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H170" s="17"/>
     </row>
@@ -3696,10 +3790,10 @@
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="18" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="H171" s="17"/>
     </row>
@@ -3710,14 +3804,12 @@
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="18" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>84</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H172" s="17"/>
     </row>
     <row r="173">
       <c r="A173" s="8"/>
@@ -3726,10 +3818,10 @@
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="18" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="H173" s="17"/>
     </row>
@@ -3740,10 +3832,10 @@
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="18" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="H174" s="17"/>
     </row>
@@ -3754,10 +3846,10 @@
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="18" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H175" s="17"/>
     </row>
@@ -3768,10 +3860,10 @@
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="18" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H176" s="17"/>
     </row>
@@ -3782,88 +3874,372 @@
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G177" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" s="17"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="30"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="33"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" s="42"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="43"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="43"/>
+      <c r="M179" s="43"/>
+      <c r="N179" s="43"/>
+      <c r="O179" s="43"/>
+      <c r="P179" s="43"/>
+      <c r="Q179" s="43"/>
+      <c r="R179" s="43"/>
+      <c r="S179" s="43"/>
+      <c r="T179" s="43"/>
+      <c r="U179" s="43"/>
+      <c r="V179" s="43"/>
+      <c r="W179" s="43"/>
+      <c r="X179" s="43"/>
+      <c r="Y179" s="43"/>
+      <c r="Z179" s="43"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="44"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" s="42"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="43"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="43"/>
+      <c r="M180" s="43"/>
+      <c r="N180" s="43"/>
+      <c r="O180" s="43"/>
+      <c r="P180" s="43"/>
+      <c r="Q180" s="43"/>
+      <c r="R180" s="43"/>
+      <c r="S180" s="43"/>
+      <c r="T180" s="43"/>
+      <c r="U180" s="43"/>
+      <c r="V180" s="43"/>
+      <c r="W180" s="43"/>
+      <c r="X180" s="43"/>
+      <c r="Y180" s="43"/>
+      <c r="Z180" s="43"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="44"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G181" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="42"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="43"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="43"/>
+      <c r="M181" s="43"/>
+      <c r="N181" s="43"/>
+      <c r="O181" s="43"/>
+      <c r="P181" s="43"/>
+      <c r="Q181" s="43"/>
+      <c r="R181" s="43"/>
+      <c r="S181" s="43"/>
+      <c r="T181" s="43"/>
+      <c r="U181" s="43"/>
+      <c r="V181" s="43"/>
+      <c r="W181" s="43"/>
+      <c r="X181" s="43"/>
+      <c r="Y181" s="43"/>
+      <c r="Z181" s="43"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="44"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G182" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H182" s="42"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="43"/>
+      <c r="O182" s="43"/>
+      <c r="P182" s="43"/>
+      <c r="Q182" s="43"/>
+      <c r="R182" s="43"/>
+      <c r="S182" s="43"/>
+      <c r="T182" s="43"/>
+      <c r="U182" s="43"/>
+      <c r="V182" s="43"/>
+      <c r="W182" s="43"/>
+      <c r="X182" s="43"/>
+      <c r="Y182" s="43"/>
+      <c r="Z182" s="43"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="44"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" s="42"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
+      <c r="M183" s="43"/>
+      <c r="N183" s="43"/>
+      <c r="O183" s="43"/>
+      <c r="P183" s="43"/>
+      <c r="Q183" s="43"/>
+      <c r="R183" s="43"/>
+      <c r="S183" s="43"/>
+      <c r="T183" s="43"/>
+      <c r="U183" s="43"/>
+      <c r="V183" s="43"/>
+      <c r="W183" s="43"/>
+      <c r="X183" s="43"/>
+      <c r="Y183" s="43"/>
+      <c r="Z183" s="43"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="44"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" s="42"/>
+      <c r="I184" s="43"/>
+      <c r="J184" s="43"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
+      <c r="M184" s="43"/>
+      <c r="N184" s="43"/>
+      <c r="O184" s="43"/>
+      <c r="P184" s="43"/>
+      <c r="Q184" s="43"/>
+      <c r="R184" s="43"/>
+      <c r="S184" s="43"/>
+      <c r="T184" s="43"/>
+      <c r="U184" s="43"/>
+      <c r="V184" s="43"/>
+      <c r="W184" s="43"/>
+      <c r="X184" s="43"/>
+      <c r="Y184" s="43"/>
+      <c r="Z184" s="43"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="44"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" s="42"/>
+      <c r="I185" s="43"/>
+      <c r="J185" s="43"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="43"/>
+      <c r="M185" s="43"/>
+      <c r="N185" s="43"/>
+      <c r="O185" s="43"/>
+      <c r="P185" s="43"/>
+      <c r="Q185" s="43"/>
+      <c r="R185" s="43"/>
+      <c r="S185" s="43"/>
+      <c r="T185" s="43"/>
+      <c r="U185" s="43"/>
+      <c r="V185" s="43"/>
+      <c r="W185" s="43"/>
+      <c r="X185" s="43"/>
+      <c r="Y185" s="43"/>
+      <c r="Z185" s="43"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="44"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H186" s="42"/>
+      <c r="I186" s="43"/>
+      <c r="J186" s="43"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
+      <c r="M186" s="43"/>
+      <c r="N186" s="43"/>
+      <c r="O186" s="43"/>
+      <c r="P186" s="43"/>
+      <c r="Q186" s="43"/>
+      <c r="R186" s="43"/>
+      <c r="S186" s="43"/>
+      <c r="T186" s="43"/>
+      <c r="U186" s="43"/>
+      <c r="V186" s="43"/>
+      <c r="W186" s="43"/>
+      <c r="X186" s="43"/>
+      <c r="Y186" s="43"/>
+      <c r="Z186" s="43"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="44"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="G187" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H177" s="17"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G178" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H178" s="17"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G179" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H179" s="17"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="8"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G180" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H180" s="17"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="8"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G181" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H181" s="17"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="30"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="33"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="22"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="43"/>
+      <c r="N187" s="43"/>
+      <c r="O187" s="43"/>
+      <c r="P187" s="43"/>
+      <c r="Q187" s="43"/>
+      <c r="R187" s="43"/>
+      <c r="S187" s="43"/>
+      <c r="T187" s="43"/>
+      <c r="U187" s="43"/>
+      <c r="V187" s="43"/>
+      <c r="W187" s="43"/>
+      <c r="X187" s="43"/>
+      <c r="Y187" s="43"/>
+      <c r="Z187" s="43"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="46"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="47"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G188" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H188" s="50"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
+      <c r="K188" s="51"/>
+      <c r="L188" s="51"/>
+      <c r="M188" s="51"/>
+      <c r="N188" s="51"/>
+      <c r="O188" s="51"/>
+      <c r="P188" s="51"/>
+      <c r="Q188" s="51"/>
+      <c r="R188" s="51"/>
+      <c r="S188" s="51"/>
+      <c r="T188" s="51"/>
+      <c r="U188" s="51"/>
+      <c r="V188" s="51"/>
+      <c r="W188" s="51"/>
+      <c r="X188" s="51"/>
+      <c r="Y188" s="51"/>
+      <c r="Z188" s="51"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="52"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53"/>
+      <c r="H189" s="54"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
